--- a/files/导出文件.xlsx
+++ b/files/导出文件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>导出文件</t>
   </si>
@@ -61,31 +61,31 @@
     <t>签字</t>
   </si>
   <si>
-    <t>Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t>瘦肉</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>Sun Jul 08 2018 18:58:55 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t>白菜</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>斤</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>YU</t>
-  </si>
-  <si>
-    <t>Sun Jul 08 2018 23:05:33 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
+  </si>
+  <si>
+    <t>猪肉</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Sun Jul 08 2018 19:05:48 GMT+0800 (GMT+08:00)</t>
   </si>
   <si>
     <t>校长（签字）：</t>
@@ -174,13 +174,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -198,6 +198,94 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -504,7 +592,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A4" sqref="A4"/>
@@ -594,12 +682,8 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
@@ -610,39 +694,39 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>11</v>
@@ -656,26 +740,58 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/files/导出文件.xlsx
+++ b/files/导出文件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>导出文件</t>
   </si>
@@ -61,31 +61,34 @@
     <t>签字</t>
   </si>
   <si>
-    <t>Sun Jul 08 2018 18:58:55 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t>白菜</t>
+    <t>Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
+  </si>
+  <si>
+    <t>瘦肉</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>斤</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>Sun Jul 08 2018 23:05:33 GMT+0800 (China Standard Time)</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>斤</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Sun Jul 08 2018 19:01:02 GMT+0800 (GMT+08:00)</t>
-  </si>
-  <si>
-    <t>猪肉</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Sun Jul 08 2018 19:05:48 GMT+0800 (GMT+08:00)</t>
+    <t>Mon Jul 09 2018 23:43:52 GMT+0800 (China Standard Time)</t>
   </si>
   <si>
     <t>校长（签字）：</t>
@@ -682,8 +685,12 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
@@ -694,39 +701,39 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>11</v>
@@ -741,7 +748,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -749,7 +756,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -773,22 +780,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>

--- a/files/导出文件.xlsx
+++ b/files/导出文件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>导出文件</t>
   </si>
@@ -59,36 +59,6 @@
   </si>
   <si>
     <t>签字</t>
-  </si>
-  <si>
-    <t>Fri Jul 06 2018 00:51:15 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t>瘦肉</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>斤</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>YU</t>
-  </si>
-  <si>
-    <t>Sun Jul 08 2018 23:05:33 GMT+0800 (China Standard Time)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Mon Jul 09 2018 23:43:52 GMT+0800 (China Standard Time)</t>
   </si>
   <si>
     <t>校长（签字）：</t>
@@ -143,13 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -169,143 +136,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A4" sqref="A4"/>
@@ -682,123 +512,23 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -806,6 +536,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>